--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_Qmaps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="30" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -723,6 +723,30 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,34 +768,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,43 +1112,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1193,58 +1193,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1269,24 +1269,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1338,7 +1338,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1603,7 +1603,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2924,10 +2924,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="81">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2956,8 +2956,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2983,8 +2983,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4271,6 +4271,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4281,16 +4291,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4301,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4333,43 +4333,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4414,58 +4414,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="85" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="85" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="75" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4490,50 +4490,76 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>864811037291056</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="70" t="s">
+      <c r="V6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4544,27 +4570,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868926033936581</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>74</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="79"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4573,27 +4627,57 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868926033923480</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="79"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4622,7 +4706,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="79"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4651,7 +4735,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="79"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4680,7 +4764,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="79"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4709,7 +4793,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="70" t="s">
+      <c r="V12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4740,7 +4824,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="79"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4769,7 +4853,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="79"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4798,7 +4882,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="79"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4827,7 +4911,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="72"/>
+      <c r="V16" s="80"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4946,7 +5030,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5371,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5415,7 +5499,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5479,7 +5563,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,7 +5894,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6061,10 +6145,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="73" t="s">
+      <c r="V56" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="73">
+      <c r="W56" s="81">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6093,8 +6177,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="74"/>
-      <c r="W57" s="74"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6120,8 +6204,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7408,6 +7492,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7418,16 +7512,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
